--- a/template/hca_full_template.xlsx
+++ b/template/hca_full_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112241A2-74BF-7147-8E85-0AB6DF38E315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B29992F-AD44-524B-8EB6-FA308951511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="1825">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -5525,6 +5525,18 @@
   </si>
   <si>
     <t>specimen_from_organism.collection_institute.longitude</t>
+  </si>
+  <si>
+    <t>INSTITUTE</t>
+  </si>
+  <si>
+    <t>Institute where the biomaterial was processed.</t>
+  </si>
+  <si>
+    <t>For example: Wellcome Sanger Institute; University of Zurich; University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>cell_suspension.processing_institute</t>
   </si>
 </sst>
 </file>
@@ -15509,8 +15521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1:BB1048576"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16493,9 +16505,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16514,19 +16528,19 @@
     <col min="36" max="36" width="27.6640625" customWidth="1"/>
     <col min="37" max="37" width="26.6640625" customWidth="1"/>
     <col min="38" max="39" width="8.83203125" customWidth="1"/>
-    <col min="40" max="40" width="25.6640625" customWidth="1"/>
-    <col min="41" max="41" width="42.6640625" customWidth="1"/>
-    <col min="42" max="42" width="35.6640625" customWidth="1"/>
-    <col min="43" max="44" width="33.6640625" customWidth="1"/>
-    <col min="45" max="53" width="25.6640625" customWidth="1"/>
-    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="25.6640625" customWidth="1"/>
-    <col min="57" max="58" width="0" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="25.6640625" customWidth="1"/>
-    <col min="60" max="60" width="37.6640625" customWidth="1"/>
+    <col min="40" max="41" width="25.6640625" customWidth="1"/>
+    <col min="42" max="42" width="42.6640625" customWidth="1"/>
+    <col min="43" max="43" width="35.6640625" customWidth="1"/>
+    <col min="44" max="45" width="33.6640625" customWidth="1"/>
+    <col min="46" max="54" width="25.6640625" customWidth="1"/>
+    <col min="55" max="56" width="0" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="25.6640625" customWidth="1"/>
+    <col min="58" max="59" width="0" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="25.6640625" customWidth="1"/>
+    <col min="61" max="61" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>476</v>
       </c>
@@ -16648,67 +16662,70 @@
         <v>303</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -16830,10 +16847,10 @@
         <v>304</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>473</v>
@@ -16842,55 +16859,58 @@
         <v>473</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -17005,60 +17025,63 @@
       <c r="AN3" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="s">
-        <v>474</v>
-      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="s">
         <v>474</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="AS3" s="2"/>
+      <c r="AS3" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>325</v>
       </c>
       <c r="AZ3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>477</v>
       </c>
@@ -17180,67 +17203,70 @@
         <v>1575</v>
       </c>
       <c r="AO4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AP4" t="s">
         <v>358</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>578</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>580</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>1485</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>308</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>311</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>314</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>318</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>322</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>326</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>329</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>333</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>335</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>337</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>339</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>343</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>346</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>348</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>352</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -17303,6 +17329,7 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
